--- a/input/layers.xlsx
+++ b/input/layers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="29"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Pres3" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="31">
   <si>
     <t xml:space="preserve">material</t>
   </si>
@@ -272,7 +272,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -452,7 +452,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.56"/>
   </cols>
@@ -636,7 +636,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.31"/>
   </cols>
@@ -845,7 +845,7 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1103,7 +1103,7 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
   </cols>
@@ -1364,7 +1364,7 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1648,7 +1648,7 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2036,7 +2036,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2190,7 +2190,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2380,7 +2380,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2570,7 +2570,7 @@
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2760,7 +2760,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
   </cols>
@@ -2897,7 +2897,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3051,7 +3051,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3231,7 +3231,7 @@
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3411,7 +3411,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3591,7 +3591,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3719,7 +3719,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3789,13 +3789,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3830,11 +3833,11 @@
       <c r="B2" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -3851,16 +3854,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -3872,6 +3875,32 @@
         <v>0.005</v>
       </c>
       <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3897,7 +3926,7 @@
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4051,7 +4080,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4153,7 +4182,7 @@
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
   </cols>
@@ -4362,7 +4391,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
   </cols>
@@ -4624,11 +4653,11 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4736,7 +4765,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5004,7 +5033,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
   </cols>
@@ -5265,7 +5294,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5523,7 +5552,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.83"/>
   </cols>
@@ -5784,7 +5813,7 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.84"/>
   </cols>
@@ -6045,7 +6074,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.59"/>
   </cols>

--- a/input/layers.xlsx
+++ b/input/layers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Pres3" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="36">
   <si>
     <t xml:space="preserve">material</t>
   </si>
@@ -141,7 +141,22 @@
     <t xml:space="preserve">Air, GaAs</t>
   </si>
   <si>
-    <t xml:space="preserve">Oxide, Al03GaAs</t>
+    <t xml:space="preserve">Hirst/Oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirst/InGaP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirst/GaAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirst/AlInP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirst/Oxide, Hirst/Al08GaAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirst/Ag</t>
   </si>
 </sst>
 </file>
@@ -272,7 +287,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -452,7 +467,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.56"/>
   </cols>
@@ -636,7 +651,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.31"/>
   </cols>
@@ -845,7 +860,7 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1103,7 +1118,7 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
   </cols>
@@ -1364,7 +1379,7 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1648,7 +1663,7 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2036,7 +2051,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2190,7 +2205,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2380,7 +2395,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2570,7 +2585,7 @@
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2760,7 +2775,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
   </cols>
@@ -2897,7 +2912,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3051,7 +3066,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3231,7 +3246,7 @@
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3411,7 +3426,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3591,7 +3606,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3719,7 +3734,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3789,13 +3804,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
   </cols>
@@ -3817,14 +3832,9 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -3843,14 +3853,9 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -3863,20 +3868,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -3895,14 +3895,9 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3926,7 +3921,7 @@
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4080,7 +4075,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4176,15 +4171,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,19 +4198,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>100</v>
@@ -4229,19 +4215,10 @@
       <c r="E2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>20</v>
@@ -4255,19 +4232,10 @@
       <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>80</v>
@@ -4281,19 +4249,10 @@
       <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>20</v>
@@ -4307,19 +4266,10 @@
       <c r="E5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>100</v>
@@ -4333,19 +4283,10 @@
       <c r="E6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>300</v>
@@ -4358,15 +4299,6 @@
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4391,7 +4323,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
   </cols>
@@ -4657,7 +4589,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4765,7 +4697,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5033,7 +4965,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
   </cols>
@@ -5294,7 +5226,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5552,7 +5484,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.83"/>
   </cols>
@@ -5813,7 +5745,7 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.84"/>
   </cols>
@@ -6074,7 +6006,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.59"/>
   </cols>

--- a/input/layers.xlsx
+++ b/input/layers.xlsx
@@ -5,39 +5,40 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
   </bookViews>
   <sheets>
-    <sheet name="Pres3" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Wedge" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sheet6" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Sheet7" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="OxideTexturedUni" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="OxideDoubleTextured" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="OxidePlanar" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="OxideTextured" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="GraphicsTest" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="GraphicsTest2" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Spacer" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="StructureTom0" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="StructureTom1" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="StructureTom2" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Presentation1" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Presentation2" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="Presentation3" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="Presentation4" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="Pres2" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="Standard" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="Standard2" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="Standard3" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="PresGrating" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="Hirst" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="Sheet30" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="Hirst_2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Pres3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Wedge" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sheet7" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="OxideTexturedUni" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="OxideDoubleTextured" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="OxidePlanar" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="OxideTextured" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="GraphicsTest" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="GraphicsTest2" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Spacer" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="StructureTom0" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="StructureTom1" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="StructureTom2" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Presentation1" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Presentation2" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="Presentation3" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="Presentation4" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="Pres2" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Standard" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="Standard2" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Standard3" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="PresGrating" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="Hirst" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="Sheet30" sheetId="31" state="visible" r:id="rId32"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="37">
   <si>
     <t xml:space="preserve">material</t>
   </si>
@@ -66,6 +67,24 @@
     <t xml:space="preserve">reverse</t>
   </si>
   <si>
+    <t xml:space="preserve">H/Oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H/InGaP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H/GaAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H/AlInP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H/Ag</t>
+  </si>
+  <si>
     <t xml:space="preserve">optimRough</t>
   </si>
   <si>
@@ -76,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">GaAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u</t>
   </si>
   <si>
     <t xml:space="preserve">GaAs, Oxide</t>
@@ -138,25 +154,13 @@
     <t xml:space="preserve">GaAs, Ag</t>
   </si>
   <si>
+    <t xml:space="preserve">Oxide, Al03GaAs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Air, GaAs</t>
   </si>
   <si>
-    <t xml:space="preserve">Hirst/Oxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirst/InGaP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirst/GaAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirst/AlInP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirst/Oxide, Hirst/Al08GaAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirst/Ag</t>
+    <t xml:space="preserve">H/Al08GaAs, H/Oxide</t>
   </si>
 </sst>
 </file>
@@ -281,13 +285,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="A2:E3 C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -305,144 +312,90 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>227.5</v>
+        <v>300</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -464,12 +417,12 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A2:E3 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,24 +442,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -526,13 +479,13 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -552,13 +505,13 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -578,57 +531,82 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="n">
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -648,12 +626,12 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A2:E3 A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,24 +651,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -710,13 +688,13 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -736,13 +714,13 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -762,16 +740,16 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -786,18 +764,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>2</v>
+        <v>3000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -812,32 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -854,13 +807,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="A2:E3 C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.31"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -879,24 +835,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -916,13 +872,13 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -940,15 +896,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -966,18 +922,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>250</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -992,41 +948,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B7" s="1" t="n">
-        <v>108</v>
+        <v>3000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -1041,58 +997,6 @@
         <v>0.005</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H9" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1115,10 +1019,268 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="A2:E3 H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="A2:E3 H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
   </cols>
@@ -1140,24 +1302,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -1177,13 +1339,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -1203,13 +1365,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -1229,13 +1391,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -1255,13 +1417,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -1281,7 +1443,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>108</v>
@@ -1307,7 +1469,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>100</v>
@@ -1333,13 +1495,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -1368,7 +1530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1376,10 +1538,10 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="A2:E3 H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1398,24 +1560,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -1435,13 +1597,13 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -1461,13 +1623,13 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -1487,13 +1649,13 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>250</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -1513,13 +1675,13 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -1539,13 +1701,13 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -1565,13 +1727,13 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -1591,13 +1753,13 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -1617,13 +1779,13 @@
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1638,394 +1800,6 @@
         <v>0.005</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H14" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2045,15 +1819,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A2:E3 H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2070,126 +1844,360 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -2199,13 +2207,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="A2:E3 C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2224,90 +2232,90 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,62 +2324,26 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+        <v>227.5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2392,10 +2364,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="A2:E3 A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2414,24 +2386,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>40</v>
@@ -2451,13 +2423,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -2477,13 +2449,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -2503,13 +2475,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -2529,13 +2501,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -2582,10 +2554,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2604,24 +2576,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>40</v>
@@ -2641,13 +2613,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -2667,13 +2639,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -2693,13 +2665,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -2719,13 +2691,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -2769,18 +2741,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="A2:E3 B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2797,24 +2766,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>227.5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -2834,16 +2803,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="C3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -2855,48 +2824,94 @@
         <v>0.005</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>227.5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2906,13 +2921,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="1" sqref="A2:E3 H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2931,30 +2946,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
@@ -2968,13 +2983,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -2994,13 +3009,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -3020,13 +3035,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>300</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -3043,6 +3058,42 @@
       <c r="H5" s="2" t="n">
         <v>1</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3060,13 +3111,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="A2:E3 B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3085,24 +3136,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -3122,13 +3173,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -3148,13 +3199,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>227.5</v>
+        <v>280</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -3174,16 +3225,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -3195,32 +3246,6 @@
         <v>0.005</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3243,10 +3268,10 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A2:E3 C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3265,24 +3290,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -3302,13 +3327,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -3328,13 +3353,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>227.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -3354,13 +3379,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>40</v>
@@ -3380,13 +3405,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>227.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -3423,10 +3448,10 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="1" sqref="A2:E3 F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3445,24 +3470,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -3482,13 +3507,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -3508,13 +3533,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>300</v>
+        <v>227.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -3534,7 +3559,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>145</v>
@@ -3560,13 +3585,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>227.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -3600,13 +3625,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3625,24 +3650,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
+      <c r="A2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -3662,53 +3687,105 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>227.5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,13 +3805,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="A2:E3 C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3753,27 +3830,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -3785,6 +3862,58 @@
         <v>0.005</v>
       </c>
       <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,16 +3933,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3831,38 +3957,36 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="A2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>1</v>
@@ -3873,31 +3997,23 @@
       <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3915,13 +4031,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3940,24 +4059,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -3966,92 +4080,51 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
+      <c r="B3" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
+        <v>3000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4069,13 +4142,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="A2:E3 E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4094,64 +4167,116 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>227.5</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,16 +4296,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="A2:E3 D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4198,107 +4320,66 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>227.5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4317,256 +4398,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A2:E3 D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>305</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>70</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-    </row>
+      <c r="B4" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4583,13 +4535,159 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="A2:E3 C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4608,18 +4706,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>150</v>
@@ -4645,13 +4743,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>1</v>
@@ -4691,257 +4789,255 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="A2:E3 D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>305</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4959,18 +5055,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="A2:E3 C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4987,24 +5080,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -5022,15 +5115,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -5048,15 +5141,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -5074,15 +5167,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -5100,15 +5193,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -5126,15 +5219,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -5152,12 +5245,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>1</v>
@@ -5178,15 +5271,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -5203,6 +5296,16 @@
       <c r="H9" s="2" t="n">
         <v>1</v>
       </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5223,10 +5326,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="A2:E3 C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5245,24 +5351,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -5282,13 +5388,13 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -5308,13 +5414,13 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -5334,13 +5440,13 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -5360,13 +5466,13 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -5386,13 +5492,13 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -5412,13 +5518,13 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>60</v>
@@ -5438,13 +5544,13 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -5481,13 +5587,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="A2:E3 C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.83"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5506,24 +5609,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -5543,13 +5646,13 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -5569,13 +5672,13 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -5595,13 +5698,13 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -5621,13 +5724,13 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -5647,13 +5750,13 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -5673,13 +5776,13 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>60</v>
@@ -5699,13 +5802,13 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -5742,10 +5845,271 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="A2:E3 C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="A2:E3 H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.84"/>
   </cols>
@@ -5767,24 +6131,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -5804,13 +6168,13 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -5830,13 +6194,13 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -5856,13 +6220,13 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -5882,13 +6246,13 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -5908,13 +6272,13 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -5934,13 +6298,13 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>60</v>
@@ -5960,13 +6324,13 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -5993,213 +6357,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.59"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/input/layers.xlsx
+++ b/input/layers.xlsx
@@ -155,10 +155,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -218,19 +218,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/input/layers.xlsx
+++ b/input/layers.xlsx
@@ -5,10 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="MaartenUniform" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="MaartenTextured" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="MaartenQR" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="MaartenReflectanceOxide" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="MaartenReflectanceAlGaAs" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Zhou" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="ZhouUniform" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Daan" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="23">
   <si>
     <t xml:space="preserve">material</t>
   </si>
@@ -47,6 +55,48 @@
   </si>
   <si>
     <t xml:space="preserve">Ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZnS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlInP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GaAs_15meV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InGaP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al03GaAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al03GaAs, Oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxide, Ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxide, GaAs_15meV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxide, Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al03GaAs, Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GaAs, Oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GaP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GaP, Ag</t>
   </si>
 </sst>
 </file>
@@ -154,11 +204,11 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -237,10 +287,1118 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>